--- a/DATA_goal/Junction_Flooding_448.xlsx
+++ b/DATA_goal/Junction_Flooding_448.xlsx
@@ -446,7 +446,7 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -655,103 +655,103 @@
         <v>44784.17361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.58</v>
+        <v>25.8</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44784.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.11</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.19</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.68</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.95</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.15</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.68</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.37</v>
+        <v>43.73</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.56</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.06</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.72</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.2</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.75</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44784.1875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.44</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.87</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.18</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.54</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.42</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.9</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.86</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.7</v>
       </c>
       <c r="M4" s="4" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>83.95</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.78</v>
       </c>
-      <c r="N4" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.35</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.93</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.55</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44784.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.75</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.5</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.6</v>
+        <v>16.02</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.76</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.23</v>
+        <v>22.31</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.49</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.68</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.22</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.63</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.83</v>
+        <v>78.31999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.39</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.62</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.84</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.97</v>
+        <v>19.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_448.xlsx
+++ b/DATA_goal/Junction_Flooding_448.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.17361111111</v>
+        <v>45129.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>1.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>0.735</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>0.124</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>4.827</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>1.423</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.979</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>2.643</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.17</v>
+        <v>1.329</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.541</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.22</v>
+        <v>1.443</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.36</v>
+        <v>2.279</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.49</v>
+        <v>1.076</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.423</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.88</v>
+        <v>1.072</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>3.872</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>0.514</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.8</v>
+        <v>14.386</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.51</v>
+        <v>3.712</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.3</v>
+        <v>2.121</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.94</v>
+        <v>1.552</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.8</v>
+        <v>1.645</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>1.823</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>2.314</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.63</v>
+        <v>0.973</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.721</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.05</v>
+        <v>1.589</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.03</v>
+        <v>1.435</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>2.091</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.55</v>
+        <v>2.771</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.187</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.18055555555</v>
+        <v>45129.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.52</v>
+        <v>7.839</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.32</v>
+        <v>5.792</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.346</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.11</v>
+        <v>17.923</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.29</v>
+        <v>13.714</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.75</v>
+        <v>6.272</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.19</v>
+        <v>19.203</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.68</v>
+        <v>9.483000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.92</v>
+        <v>4.259</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.95</v>
+        <v>6.671</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.76</v>
+        <v>7.493</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.15</v>
+        <v>7.249</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.08</v>
+        <v>2.042</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.62</v>
+        <v>6.128</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.68</v>
+        <v>9.875999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.68</v>
+        <v>4.87</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.081</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>43.73</v>
+        <v>89.497</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>17.611</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.56</v>
+        <v>6.246</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.51</v>
+        <v>11.561</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.67</v>
+        <v>6.591</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.43</v>
+        <v>1.568</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.06</v>
+        <v>10.399</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.72</v>
+        <v>5.159</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.87</v>
+        <v>4.43</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.97</v>
+        <v>5.627</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.2</v>
+        <v>7.44</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.75</v>
+        <v>17.387</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.47</v>
+        <v>3.039</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.55</v>
+        <v>7.722</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.1875</v>
+        <v>45129.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.44</v>
+        <v>3.143</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.87</v>
+        <v>2.3</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.183</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.18</v>
+        <v>7.385</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.54</v>
+        <v>5.401</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.61</v>
+        <v>2.573</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>21.42</v>
+        <v>12.021</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>3.819</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.86</v>
+        <v>1.793</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.86</v>
+        <v>2.761</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.7</v>
+        <v>3.209</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.83</v>
+        <v>2.89</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.93</v>
+        <v>0.851</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.47</v>
+        <v>2.443</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>4.322</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.92</v>
+        <v>1.869</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.016</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>83.95</v>
+        <v>32.51</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.7</v>
+        <v>7.518</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.82</v>
+        <v>2.656</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.48</v>
+        <v>4.916</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.18</v>
+        <v>2.846</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.35</v>
+        <v>6.163</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.89</v>
+        <v>2.124</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.93</v>
+        <v>1.785</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.17</v>
+        <v>2.398</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.21</v>
+        <v>3.065</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.505</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.55</v>
+        <v>11.494</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.96</v>
+        <v>1.166</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.71</v>
+        <v>3.267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.19444444445</v>
+        <v>45129.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.75</v>
+        <v>11.36</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.5</v>
+        <v>8.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.02</v>
+        <v>25.12</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.76</v>
+        <v>20.25</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.34</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.31</v>
+        <v>31.88</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.49</v>
+        <v>13.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.68</v>
+        <v>6.21</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.56</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.29</v>
+        <v>10.29</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.19</v>
+        <v>10.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.81</v>
+        <v>2.89</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.22</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>13.24</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.63</v>
+        <v>7.23</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.31999999999999</v>
+        <v>129.8</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.77</v>
+        <v>25.09</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.39</v>
+        <v>8.5</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.82</v>
+        <v>16.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.77</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.74</v>
+        <v>1.53</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.62</v>
+        <v>16.08</v>
       </c>
       <c r="AA5" s="4" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>4.59</v>
       </c>
-      <c r="AB5" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>19.72</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.81</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.64</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.73</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.94</v>
+        <v>10.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_448.xlsx
+++ b/DATA_goal/Junction_Flooding_448.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45129.50694444445</v>
+        <v>44784.17361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.29</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.735</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.124</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.827</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.423</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.979</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.643</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.329</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.541</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.443</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.279</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.076</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.423</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.072</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.872</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.514</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>1.256</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0.001</v>
-      </c>
       <c r="T2" s="4" t="n">
-        <v>14.386</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.712</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.121</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.552</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.645</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.823</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.314</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.973</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.721</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.589</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.435</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.091</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.771</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.187</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.45</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45129.51388888889</v>
+        <v>44784.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.839</v>
+        <v>5.525</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.792</v>
+        <v>3.322</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.346</v>
+        <v>0.661</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>17.923</v>
+        <v>10.108</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.714</v>
+        <v>7.289</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.272</v>
+        <v>2.75</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>19.203</v>
+        <v>11.191</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.483000000000001</v>
+        <v>4.685</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.259</v>
+        <v>1.915</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.671</v>
+        <v>2.952</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.493</v>
+        <v>3.758</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.249</v>
+        <v>5.145</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.042</v>
+        <v>1.078</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.128</v>
+        <v>2.616</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.875999999999999</v>
+        <v>4.683</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.87</v>
+        <v>2.684</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.081</v>
+        <v>0.622</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.039</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>89.497</v>
+        <v>43.728</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>17.611</v>
+        <v>9.285</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.246</v>
+        <v>3.561</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>11.561</v>
+        <v>6.512</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.591</v>
+        <v>3.666</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.568</v>
+        <v>0.434</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.399</v>
+        <v>5.057</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.159</v>
+        <v>2.723</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.43</v>
+        <v>1.868</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.627</v>
+        <v>2.971</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.44</v>
+        <v>4.199</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>17.387</v>
+        <v>8.750999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.039</v>
+        <v>1.474</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.722</v>
+        <v>3.547</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45129.52083333334</v>
+        <v>44784.1875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.143</v>
+        <v>8.436</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.3</v>
+        <v>5.87</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.183</v>
+        <v>0.571</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7.385</v>
+        <v>17.18</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5.401</v>
+        <v>13.542</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.573</v>
+        <v>5.613</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>12.021</v>
+        <v>21.42</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.819</v>
+        <v>8.971</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.793</v>
+        <v>3.861</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.761</v>
+        <v>5.863</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.209</v>
+        <v>6.705</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.89</v>
+        <v>7.827</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.851</v>
+        <v>1.928</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.443</v>
+        <v>5.474</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.322</v>
+        <v>8.526999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.869</v>
+        <v>4.922</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.016</v>
+        <v>0.459</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>32.51</v>
+        <v>83.952</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>7.518</v>
+        <v>16.704</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.656</v>
+        <v>5.817</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.916</v>
+        <v>11.48</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.846</v>
+        <v>6.182</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.785</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.163</v>
+        <v>10.346</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.124</v>
+        <v>4.89</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.785</v>
+        <v>3.929</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.398</v>
+        <v>5.167</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.065</v>
+        <v>7.212</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.505</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.494</v>
+        <v>18.547</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.166</v>
+        <v>2.958</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.267</v>
+        <v>6.709</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45129.52777777778</v>
+        <v>44784.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.36</v>
+        <v>7.75</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.49</v>
+        <v>5.505</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.463</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.12</v>
+        <v>16.017</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.25</v>
+        <v>12.763</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>5.344</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>31.88</v>
+        <v>22.309</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.78</v>
+        <v>8.488</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.21</v>
+        <v>3.679</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>5.562</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.29</v>
+        <v>6.288</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.49</v>
+        <v>7.188</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.89</v>
+        <v>1.811</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>5.219</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.24</v>
+        <v>8.042</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.23</v>
+        <v>4.635</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.36</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>129.8</v>
+        <v>78.31999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.09</v>
+        <v>15.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.5</v>
+        <v>5.395</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.82</v>
+        <v>10.824</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>5.769</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.53</v>
+        <v>0.737</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.08</v>
+        <v>10.618</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.34</v>
+        <v>4.59</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.37</v>
+        <v>3.755</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.74</v>
+        <v>4.837</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.57</v>
+        <v>6.729</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.118</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>28.89</v>
+        <v>19.722</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.59</v>
+        <v>2.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.58</v>
+        <v>6.336</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44784.20137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>72.64</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.94</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_448.xlsx
+++ b/DATA_goal/Junction_Flooding_448.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.17361111111</v>
+        <v>45129.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.885</v>
+        <v>1.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.942</v>
+        <v>0.735</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.363</v>
+        <v>0.124</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.767</v>
+        <v>4.827</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.737</v>
+        <v>1.423</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.979</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.281</v>
+        <v>2.643</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.168</v>
+        <v>1.329</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.758</v>
+        <v>0.541</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.218</v>
+        <v>1.443</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.359</v>
+        <v>2.279</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.493</v>
+        <v>1.076</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.668</v>
+        <v>0.423</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.884</v>
+        <v>1.072</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.495</v>
+        <v>3.872</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.484</v>
+        <v>0.514</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.256</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.797</v>
+        <v>14.386</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.514</v>
+        <v>3.712</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.303</v>
+        <v>2.121</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.938</v>
+        <v>1.552</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.803</v>
+        <v>1.645</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.246</v>
+        <v>1.823</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>2.314</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.634</v>
+        <v>0.973</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.588</v>
+        <v>0.721</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.048</v>
+        <v>1.589</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.034</v>
+        <v>1.435</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.186</v>
+        <v>2.091</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.547</v>
+        <v>2.771</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.594</v>
+        <v>0.187</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.826</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.18055555555</v>
+        <v>45129.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.525</v>
+        <v>7.839</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.322</v>
+        <v>5.792</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.661</v>
+        <v>0.346</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.108</v>
+        <v>17.923</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.289</v>
+        <v>13.714</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.75</v>
+        <v>6.272</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.191</v>
+        <v>19.203</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.685</v>
+        <v>9.483000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.915</v>
+        <v>4.259</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.952</v>
+        <v>6.671</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.758</v>
+        <v>7.493</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.145</v>
+        <v>7.249</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.078</v>
+        <v>2.042</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.616</v>
+        <v>6.128</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.683</v>
+        <v>9.875999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.684</v>
+        <v>4.87</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.622</v>
+        <v>0.081</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>43.728</v>
+        <v>89.497</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.285</v>
+        <v>17.611</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.561</v>
+        <v>6.246</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.512</v>
+        <v>11.561</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.666</v>
+        <v>6.591</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.434</v>
+        <v>1.568</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.057</v>
+        <v>10.399</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.723</v>
+        <v>5.159</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.868</v>
+        <v>4.43</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.971</v>
+        <v>5.627</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.199</v>
+        <v>7.44</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.173</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.750999999999999</v>
+        <v>17.387</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.474</v>
+        <v>3.039</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.547</v>
+        <v>7.722</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.1875</v>
+        <v>45129.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.436</v>
+        <v>3.143</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.87</v>
+        <v>2.3</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.571</v>
+        <v>0.183</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.18</v>
+        <v>7.385</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.542</v>
+        <v>5.401</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.613</v>
+        <v>2.573</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>21.42</v>
+        <v>12.021</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.971</v>
+        <v>3.819</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.861</v>
+        <v>1.793</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.863</v>
+        <v>2.761</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.705</v>
+        <v>3.209</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.827</v>
+        <v>2.89</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.928</v>
+        <v>0.851</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.474</v>
+        <v>2.443</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.526999999999999</v>
+        <v>4.322</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.922</v>
+        <v>1.869</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.459</v>
+        <v>0.016</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>83.952</v>
+        <v>32.51</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.704</v>
+        <v>7.518</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.817</v>
+        <v>2.656</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.48</v>
+        <v>4.916</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.182</v>
+        <v>2.846</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.785</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.346</v>
+        <v>6.163</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.89</v>
+        <v>2.124</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.929</v>
+        <v>1.785</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.167</v>
+        <v>2.398</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.212</v>
+        <v>3.065</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.141</v>
+        <v>0.505</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.547</v>
+        <v>11.494</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.958</v>
+        <v>1.166</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.709</v>
+        <v>3.267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.19444444445</v>
+        <v>45129.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.75</v>
+        <v>11.36</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.505</v>
+        <v>8.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.463</v>
+        <v>0.45</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.017</v>
+        <v>25.12</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.763</v>
+        <v>20.25</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.344</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.309</v>
+        <v>31.88</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.488</v>
+        <v>13.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.679</v>
+        <v>6.21</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.562</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.288</v>
+        <v>10.29</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.188</v>
+        <v>10.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.811</v>
+        <v>2.89</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.219</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.042</v>
+        <v>13.24</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.635</v>
+        <v>7.23</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.31999999999999</v>
+        <v>129.8</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.77</v>
+        <v>25.09</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.395</v>
+        <v>8.5</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.824</v>
+        <v>16.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.769</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.737</v>
+        <v>1.53</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.618</v>
+        <v>16.08</v>
       </c>
       <c r="AA5" s="4" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>4.59</v>
       </c>
-      <c r="AB5" s="4" t="n">
-        <v>3.755</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>4.837</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>6.729</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>19.722</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.81</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>6.336</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.64</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.73</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.94</v>
+        <v>10.58</v>
       </c>
     </row>
   </sheetData>
